--- a/src/info/aquis_censo_escolas_cols.xlsx
+++ b/src/info/aquis_censo_escolas_cols.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro.forli\PycharmProjects\curso-ciencia-dados\src\info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7136DAEB-AFD7-4F0C-AF0D-6F3F531AB9F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{805F3E25-994A-40FF-ABF9-BB01DE528045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{48C7DDBA-442F-4222-8A07-8EDC411B5A7F}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3659" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3659" uniqueCount="545">
   <si>
     <t>NU_ANO_CENSO</t>
   </si>
@@ -1695,6 +1695,9 @@
   </si>
   <si>
     <t>QT_ALUNOS_EJA_MED_APROV_2SEM</t>
+  </si>
+  <si>
+    <t>ID_ESCOLA</t>
   </si>
 </sst>
 </file>
@@ -2233,7 +2236,7 @@
   <dimension ref="A1:F488"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2274,7 +2277,7 @@
         <v>33</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>5</v>
+        <v>544</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -5563,7 +5566,7 @@
         <v>33</v>
       </c>
       <c r="C302" s="3" t="s">
-        <v>5</v>
+        <v>544</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
